--- a/data/output/FV2410_FV2404/UTILMD/55191.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55191.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4850" uniqueCount="386">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4871" uniqueCount="386">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1275,6 +1275,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U216" totalsRowShown="0">
+  <autoFilter ref="A1:U216"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1564,7 +1594,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12007,5 +12040,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55191.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55191.xlsx
@@ -2330,7 +2330,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4652,7 +4652,7 @@
         <v>366</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4814,7 +4814,7 @@
         <v>366</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5018,7 +5018,7 @@
         <v>368</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5422,7 +5422,7 @@
         <v>366</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5730,7 +5730,7 @@
         <v>369</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6392,7 +6392,7 @@
         <v>371</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6716,7 +6716,7 @@
         <v>373</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -7236,7 +7236,7 @@
         <v>374</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7632,7 +7632,7 @@
         <v>366</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8348,7 +8348,7 @@
         <v>375</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9018,7 +9018,7 @@
         <v>377</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9122,7 +9122,7 @@
         <v>378</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9270,7 +9270,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9432,7 +9432,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9648,7 +9648,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9794,7 +9794,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10196,7 +10196,7 @@
         <v>380</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10504,7 +10504,7 @@
         <v>381</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11516,7 +11516,7 @@
         <v>383</v>
       </c>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11664,7 +11664,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11826,7 +11826,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12188,7 +12188,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -12288,7 +12288,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -12590,7 +12590,7 @@
         <v>385</v>
       </c>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -12738,7 +12738,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -13202,7 +13202,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N214" s="2"/>
